--- a/Documentation/PLC project budget.xlsx
+++ b/Documentation/PLC project budget.xlsx
@@ -498,7 +498,9 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Documentation/PLC project budget.xlsx
+++ b/Documentation/PLC project budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>Description</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Wires, LEDS, Resistors</t>
-  </si>
-  <si>
-    <t>STM32F401RET6</t>
   </si>
   <si>
     <t>https://www.digikey.ca/</t>
@@ -499,7 +496,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -577,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -609,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -637,30 +634,10 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>10.48</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1">
-        <f>E10*F10</f>
-        <v>10.48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>24</v>
-      </c>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
@@ -670,13 +647,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
@@ -691,7 +668,7 @@
         <v>19.829999999999998</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,13 +679,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="1">
         <v>14.34</v>
@@ -721,18 +698,18 @@
         <v>14.34</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1">
         <v>32.42</v>
@@ -746,18 +723,18 @@
         <v>32.42</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>29</v>
-      </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1">
         <v>34.33</v>
@@ -771,10 +748,10 @@
         <v>34.33</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -795,7 +772,7 @@
       </c>
       <c r="H28" s="6">
         <f>SUM(H4:H24)</f>
-        <v>203.33999999999997</v>
+        <v>192.86</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,7 +781,7 @@
       </c>
       <c r="H29" s="3">
         <f>H28*1.13</f>
-        <v>229.77419999999995</v>
+        <v>217.93179999999998</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">

--- a/Documentation/PLC project budget.xlsx
+++ b/Documentation/PLC project budget.xlsx
@@ -113,9 +113,6 @@
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>free shipping fore amazon</t>
-  </si>
-  <si>
     <t>free shipping for amazon</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Parts for PLC hardware June Dacaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free shipping fore amazon/ </t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">

--- a/Documentation/PLC project budget.xlsx
+++ b/Documentation/PLC project budget.xlsx
@@ -113,16 +113,16 @@
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>free shipping for amazon</t>
-  </si>
-  <si>
-    <t>Shipping for all items from digikey will be $8.00 cad</t>
-  </si>
-  <si>
     <t>Parts for PLC hardware June Dacaya</t>
   </si>
   <si>
-    <t xml:space="preserve">free shipping fore amazon/ </t>
+    <t>free shipping fore amazon/ I might only need the NUCLEO-F401RE</t>
+  </si>
+  <si>
+    <t>free shipping for amazon / I might not need this part as well</t>
+  </si>
+  <si>
+    <t>Shipping for all items from digikey will be $8.00 cad free if order is over $100</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -751,7 +751,7 @@
         <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">

--- a/Documentation/PLC project budget.xlsx
+++ b/Documentation/PLC project budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Description</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>US$ Unit Cost</t>
-  </si>
-  <si>
-    <t>US$ Subtotal</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -56,36 +50,9 @@
     <t>Part #</t>
   </si>
   <si>
-    <t>Total for parts from US sources</t>
-  </si>
-  <si>
     <t>Total for parts from CAD sources</t>
   </si>
   <si>
-    <t>Raspberry Pi 3 Model B+ Starter Kit</t>
-  </si>
-  <si>
-    <t>Canakit</t>
-  </si>
-  <si>
-    <t>PI3P-STR16-C4-BLK</t>
-  </si>
-  <si>
-    <t>https://www.canakit.com/</t>
-  </si>
-  <si>
-    <t>AP-POE-100M-CA</t>
-  </si>
-  <si>
-    <t>Raspberry Pi Adapter (5V Micro USB Power + Ethernet)</t>
-  </si>
-  <si>
-    <t>AuviPal</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/</t>
-  </si>
-  <si>
     <t>Schools Parts Kit</t>
   </si>
   <si>
@@ -116,13 +83,16 @@
     <t>Parts for PLC hardware June Dacaya</t>
   </si>
   <si>
-    <t>free shipping fore amazon/ I might only need the NUCLEO-F401RE</t>
-  </si>
-  <si>
-    <t>free shipping for amazon / I might not need this part as well</t>
-  </si>
-  <si>
     <t>Shipping for all items from digikey will be $8.00 cad free if order is over $100</t>
+  </si>
+  <si>
+    <t>This part contains the STM32</t>
+  </si>
+  <si>
+    <t>NUCLEO-F401RE with ODE</t>
+  </si>
+  <si>
+    <t>Already acquired</t>
   </si>
 </sst>
 </file>
@@ -134,7 +104,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,14 +114,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -194,21 +156,19 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,10 +453,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,356 +464,247 @@
     <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <f>D7*E7</f>
+        <v>19.829999999999998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <f>D9*E9</f>
+        <v>14.34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>32.42</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11*E11</f>
+        <v>32.42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1">
+        <v>34.33</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" ref="F13" si="0">D13*E13</f>
+        <v>34.33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>74.95</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <f>E4*F4</f>
-        <v>74.95</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <f>E6*F6</f>
-        <v>16.989999999999998</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <v>19.829999999999998</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1">
-        <f>E12*F12</f>
-        <v>19.829999999999998</v>
-      </c>
-      <c r="I12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="1">
-        <v>14.34</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f>E14*F14</f>
-        <v>14.34</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1">
-        <v>32.42</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="1">
-        <f>E16*F16</f>
-        <v>32.42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1">
-        <v>34.33</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18" si="0">E18*F18</f>
-        <v>34.33</v>
-      </c>
-      <c r="I18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="F20" s="6">
+        <f>SUM(F4:F17)</f>
+        <v>100.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="6">
-        <f ca="1">SUM(G4:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="6">
-        <f>SUM(H4:H24)</f>
-        <v>192.86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="3">
-        <f>H28*1.13</f>
-        <v>217.93179999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="4"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="3">
+        <f>F20*1.13</f>
+        <v>114.03959999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35" s="4"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="4"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="F45" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1"/>
-  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId2"/>
+  <pageSetup scale="51" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentation/PLC project budget.xlsx
+++ b/Documentation/PLC project budget.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Description</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>Already acquired</t>
+  </si>
+  <si>
+    <t>UGREEN Mini-USB 2.0</t>
+  </si>
+  <si>
+    <t>UGREEN GROUP LIMITED</t>
+  </si>
+  <si>
+    <t>amazon.ca</t>
+  </si>
+  <si>
+    <t>Shipping was free</t>
   </si>
 </sst>
 </file>
@@ -455,8 +467,8 @@
   </sheetPr>
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +636,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13" si="0">D13*E13</f>
+        <f t="shared" ref="F13:F15" si="0">D13*E13</f>
         <v>34.33</v>
       </c>
       <c r="G13" t="s">
@@ -632,6 +644,33 @@
       </c>
       <c r="H13" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>6.99</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -643,7 +682,7 @@
       </c>
       <c r="F20" s="6">
         <f>SUM(F4:F17)</f>
-        <v>100.92</v>
+        <v>107.91</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -652,7 +691,7 @@
       </c>
       <c r="F21" s="3">
         <f>F20*1.13</f>
-        <v>114.03959999999999</v>
+        <v>121.93829999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
